--- a/劲霜.xlsx
+++ b/劲霜.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>???20个颈霜两个地址未给，已经付款</t>
   </si>
@@ -182,6 +182,18 @@
   </si>
   <si>
     <t>小茹，17366028677，江苏省 南京市 江宁区 淳化街道保利梧桐语，211100，颈霜10个，淘宝付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李康翔 15158694411 浙江省温州市鹿城区双龙路东南金融大厦----  ，20个颈霜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马会18105615551 颈霜9个 安徽省淮北市人民东路广播电视中心都市频道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶瑶 18855615028 颈霜3，安徽省安庆市大观区壕埂街9号6单元  发件人王梦飞17080280322</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -781,8 +793,8 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1397,13 +1409,55 @@
         <v>40</v>
       </c>
     </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="5">
+        <v>20</v>
+      </c>
+      <c r="D42" s="5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="5">
+        <v>3</v>
+      </c>
+      <c r="D43" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="5">
+        <v>9</v>
+      </c>
+      <c r="D44" s="5">
+        <v>43</v>
+      </c>
+    </row>
     <row r="51" spans="5:6">
       <c r="E51" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F51" s="7">
         <f>SUM(C2:C77)+SUM(G1:G77)</f>
-        <v>1800</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="52" spans="5:6">
@@ -1421,7 +1475,7 @@
       </c>
       <c r="F54" s="5">
         <f>F52-F51</f>
-        <v>328</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
